--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Tarek Attia Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230030</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1125,7 +1134,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1285,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6817985301</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3831211458</x:v>
+        <x:v>45907.6817985301</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45912.3831211458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6745479977</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.6745479977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6810513542</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6790326736</x:v>
+        <x:v>45907.6810513542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6790326736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.3825394676</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45912.3825394676</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652935995</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652935995</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6189731134</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6189731134</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
-    <x:t>1230158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم عادل سيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Adel Said Muhamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240036</x:t>
   </x:si>
   <x:si>
@@ -69,15 +60,6 @@
     <x:t>Bilal Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240043</x:t>
   </x:si>
   <x:si>
@@ -285,6 +267,15 @@
     <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد السيد محمد هارون</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ELSAYED MOHAMED HAROUN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240136</x:t>
   </x:si>
   <x:si>
@@ -301,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1230110</x:t>
@@ -974,7 +974,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6649331829</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1006,7 +1006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1038,7 +1038,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1070,7 +1070,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6724371528</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1102,7 +1102,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1134,7 +1134,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45924.612878044</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6817985301</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45912.3831211458</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6817985301</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1390,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3831211458</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1454,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45907.6745479977</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6745479977</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6810513542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.6790326736</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6810513542</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6790326736</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,24 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>إبراهيم محمد إبراهيم محمد فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Mohamed Ibrahim Mohamed Farrag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابى احمد محمد عبدالموجود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
     <x:t>1240015</x:t>
@@ -551,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -942,7 +960,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45928.4940145023</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -974,7 +992,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45928.4909568287</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1006,7 +1024,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1038,7 +1056,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1070,7 +1088,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45924.612878044</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1102,7 +1120,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1134,7 +1152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1184,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1216,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1248,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1312,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6817985301</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1344,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3831211458</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1376,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45907.6817985301</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1390,7 +1408,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45912.3831211458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1440,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1454,7 +1472,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6745479977</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1504,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1536,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45907.6745479977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1568,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6810513542</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6790326736</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6810513542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45907.6790326736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4826675926</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1824,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.6185469907</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.3825394676</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45912.3825394676</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652935995</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45907.6652935995</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6189731134</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2385,70 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.6189731134</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حماده حليم صالح الحوت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
   </x:si>
   <x:si>
     <x:t>1240154</x:t>
@@ -569,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2048,7 +2057,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45929.5264654745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2080,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3825394676</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45912.3825394676</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6652935995</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652935995</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2441,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6189731134</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2458,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6189731134</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -153,7 +153,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>

--- a/downloaded_files/CMPS118_Lecture-35660.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35660.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -463,6 +463,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ayman Mahmoud Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -578,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2490,6 +2499,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45938.6244545486</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
